--- a/tool_openpyxl.xlsx
+++ b/tool_openpyxl.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okubo\OneDrive\ドキュメント\003_work\010_python-openpyxl\python-openpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B640BF5-2E46-4D33-B904-5FA8CBF6A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4904269B-F0C9-4B28-9C77-10BC02AF5C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="28785" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +378,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.7">
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
